--- a/examples/data_test2.xlsx
+++ b/examples/data_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsven\code\OffshoreEnergySystem_OOGESO\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643869B-88A3-45F3-8BD4-06A8B18E405F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA0A5FB-5D60-4E6F-BC65-5171FCF79F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13872" yWindow="984" windowWidth="15708" windowHeight="12744" activeTab="2" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
+    <workbookView xWindow="4968" yWindow="744" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EB3A90-DDA6-4778-8302-DAD5F7252115}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6EB10-AB47-4D11-878D-7EA50574CBA2}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1673,7 +1673,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G54" si="0">G3-0.02</f>
+        <f t="shared" ref="G4:G51" si="0">G3-0.02</f>
         <v>0.96</v>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H54" si="1">H3-0.02</f>
+        <f t="shared" ref="H4:H51" si="1">H3-0.02</f>
         <v>0.96</v>
       </c>
     </row>
@@ -7169,6 +7169,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068757AD89D0841429F5831BBC6267AC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e521892cf07d8fee7d1fab9fe3aaa83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c" xmlns:ns4="53f6e7f0-9e34-4545-9b50-e54ccadfb78a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ffc55c83d6521c05fad87c69f289641" ns3:_="" ns4:_="">
     <xsd:import namespace="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c"/>
@@ -7377,15 +7386,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
   <ds:schemaRefs>
@@ -7396,6 +7396,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78762D46-3C96-44E4-BFC9-B88DF736E950}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1016DCAE-9D9F-40DE-A38A-1587953D2A7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7412,12 +7420,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78762D46-3C96-44E4-BFC9-B88DF736E950}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/examples/data_test2.xlsx
+++ b/examples/data_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsven\code\OffshoreEnergySystem_OOGESO\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA0A5FB-5D60-4E6F-BC65-5171FCF79F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB99E5-07BF-4EBD-AA73-2F0BA0317929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="744" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -452,10 +452,31 @@
     <t>no limit</t>
   </si>
   <si>
-    <t>elDispatchMargin</t>
-  </si>
-  <si>
     <t>MW unused capacity</t>
+  </si>
+  <si>
+    <t>elBackupMargin</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>storage_el</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>Emax</t>
+  </si>
+  <si>
+    <t>MWh (1 hour at full power)</t>
+  </si>
+  <si>
+    <t>time_reserve_minutes</t>
+  </si>
+  <si>
+    <t>min (duration reserve required - relevant for storage)</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EB3A90-DDA6-4778-8302-DAD5F7252115}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,6 +1658,56 @@
         <v>54</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1644,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6EB10-AB47-4D11-878D-7EA50574CBA2}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,7 +1840,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" s="4">
         <v>-1</v>
@@ -1780,13 +1851,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1809,6 +1880,17 @@
       </c>
       <c r="C14" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="4">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -7163,12 +7245,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7177,7 +7253,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068757AD89D0841429F5831BBC6267AC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e521892cf07d8fee7d1fab9fe3aaa83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c" xmlns:ns4="53f6e7f0-9e34-4545-9b50-e54ccadfb78a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ffc55c83d6521c05fad87c69f289641" ns3:_="" ns4:_="">
     <xsd:import namespace="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c"/>
@@ -7386,16 +7462,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78762D46-3C96-44E4-BFC9-B88DF736E950}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7403,7 +7476,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1016DCAE-9D9F-40DE-A38A-1587953D2A7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7420,4 +7493,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/examples/data_test2.xlsx
+++ b/examples/data_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsven\code\OffshoreEnergySystem_OOGESO\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB99E5-07BF-4EBD-AA73-2F0BA0317929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B613C2-48D2-4133-B666-E266239E9E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -1165,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EB3A90-DDA6-4778-8302-DAD5F7252115}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -1663,10 +1663,10 @@
         <v>139</v>
       </c>
       <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>139</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6EB10-AB47-4D11-878D-7EA50574CBA2}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
